--- a/Documentation/discovery/MMU/descriptor_protokoll_ifc_version_progiciel.3_0_1.xlsx
+++ b/Documentation/discovery/MMU/descriptor_protokoll_ifc_version_progiciel.3_0_1.xlsx
@@ -20,27 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
-  <si>
-    <t xml:space="preserve">КОМАНДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧТО ДЕЛАЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРИВЕР 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОТВЕТ  1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОТВЕТ 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
+  <si>
+    <t xml:space="preserve">COMMAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output 2</t>
   </si>
   <si>
     <t xml:space="preserve">F24 C2</t>
   </si>
   <si>
-    <t xml:space="preserve">выбор канала ифс , в данном случае 2 (прижим филамента)</t>
+    <t xml:space="preserve">selecting the ifs channel, in this case 2 (clamping the filament) </t>
   </si>
   <si>
     <t xml:space="preserve">F24 C2 \r\n</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">F10 C4 L90 S300 </t>
   </si>
   <si>
-    <t xml:space="preserve">подача по каналу 4 ДЛИННОЮ 90ММ СКОРОСТЬЮ 300 (подтверждено)</t>
+    <t xml:space="preserve">feed through channel 4 with a LENGTH of 90MM AND A SPEED of 300 (confirmed) </t>
   </si>
   <si>
     <t xml:space="preserve">F10 C4 L90 S300 \r\n</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">F11 C4 L70 S600</t>
   </si>
   <si>
-    <t xml:space="preserve">вытащить пруток из 4 канала 70мм скорость 600 (подтвержедно)</t>
+    <t xml:space="preserve">pull the rod out of the 4 channel 70mm speed 600 (confirmed) </t>
   </si>
   <si>
     <t xml:space="preserve">F11 C4 L70 S600 \r\n</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">F39 C4 </t>
   </si>
   <si>
-    <t xml:space="preserve">ослаблеине прижима выбранног оканала канала, что бы голове проще было тянуть</t>
+    <t xml:space="preserve">loosening the pressure of the selected channel edge to make it easier for the head to pull </t>
   </si>
   <si>
     <t xml:space="preserve">F39 C4 \r\n</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">F23 C2 </t>
   </si>
   <si>
-    <t xml:space="preserve">неизвестно</t>
+    <t xml:space="preserve">UNKNOWN </t>
   </si>
   <si>
     <t xml:space="preserve">F23 C2 \r\n</t>
@@ -100,19 +100,19 @@
     <t xml:space="preserve">F23 ok. chan 1. \r\n</t>
   </si>
   <si>
-    <t xml:space="preserve">F23 ok. no chan. (ЛУЧАЕ ЕСЛИ КОМАНДА БЫЛА ПОСЛАНА БЕЗ АРГУМЕНТА)</t>
+    <t xml:space="preserve">F23 ok. no chan. ( EVEN IF THE COMMAND WAS SENT WITHOUT AN ARGUMENT )</t>
   </si>
   <si>
     <t xml:space="preserve">F13 </t>
   </si>
   <si>
-    <t xml:space="preserve">опрос текущего состояния исф, пока не расшифровано</t>
+    <t xml:space="preserve">survey of the current state of the ISF, not yet deciphered </t>
   </si>
   <si>
     <t xml:space="preserve">F13 \r\n</t>
   </si>
   <si>
-    <t xml:space="preserve">F13 ok. FFS_state: 5 silk_state: 9 chan: 4 ffs_channels_insert: 0 stall_state: 0 jinsi_GCONF: 000001dc qiehuan_GCONF: 000001dc vibr: 0</t>
+    <t xml:space="preserve">F13 ok. FFS_state: 5 stateside: 9 chan: 4 ffs_channels_insert: 0 stall_state: 0 jinsi_GCONF: 000001dc qiehuan_GCONF: 000001dc vibr: 0</t>
   </si>
   <si>
     <t xml:space="preserve">ffs_channels_insert: 0  - говорит что ни один новый пруток небыл вставлен , 1 - прутко 1 вставлен, 2 пруток 2 вставлен , 4 пруток 3 вставлен, 8 пруток 4 вставлен</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">F19 </t>
   </si>
   <si>
-    <t xml:space="preserve">проверка прошивки ифс</t>
+    <t xml:space="preserve">checking the IFS firmware </t>
   </si>
   <si>
     <t xml:space="preserve">F19 \r\n</t>
@@ -142,13 +142,13 @@
     <t xml:space="preserve">F37</t>
   </si>
   <si>
-    <t xml:space="preserve">перевесит в режим обновления прошивки</t>
+    <t xml:space="preserve">It will outweigh the firmware update mode. </t>
   </si>
   <si>
     <t xml:space="preserve">F45 </t>
   </si>
   <si>
-    <t xml:space="preserve">что-то с дарйверами ифс</t>
+    <t xml:space="preserve">Something's wrong with the ifs drivers. </t>
   </si>
   <si>
     <t xml:space="preserve">F45 ok.GSTAT: 00000000 \r\n</t>
@@ -160,19 +160,19 @@
     <t xml:space="preserve">F44 </t>
   </si>
   <si>
-    <t xml:space="preserve">статус шаговиков ифс ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F44 ok.DRV_STATUS: 00000000 \r\n (вставлен 1 и 4 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F44 ok.DRV_STATUS: 80000000 \r\n (вставил пруток 2)</t>
+    <t xml:space="preserve">the status of the IFS steppers ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F44 ok.DRV_STATUS: 00000000 \r\n (inserted 1 and 4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F44 ok.DRV_STATUS: 80000000 \r\n (inserted rod 2) </t>
   </si>
   <si>
     <t xml:space="preserve">F12</t>
   </si>
   <si>
-    <t xml:space="preserve">ОБНАРУЖЕНИЕ ПРУТКА </t>
+    <t xml:space="preserve">ROD DETECTION</t>
   </si>
   <si>
     <t xml:space="preserve">F12 \r\n</t>
@@ -184,9 +184,6 @@
     <t xml:space="preserve">F14 </t>
   </si>
   <si>
-    <t xml:space="preserve">НИЗВЕСТНО</t>
-  </si>
-  <si>
     <t xml:space="preserve">F14 \r\n</t>
   </si>
   <si>
@@ -205,7 +202,7 @@
     <t xml:space="preserve">F18</t>
   </si>
   <si>
-    <t xml:space="preserve">общее ослабление прижима</t>
+    <t xml:space="preserve">general loosening of the clamp </t>
   </si>
   <si>
     <t xml:space="preserve">F18 \r\n</t>
@@ -256,13 +253,10 @@
     <t xml:space="preserve">F23 C1</t>
   </si>
   <si>
-    <t xml:space="preserve">UNKNOWN </t>
-  </si>
-  <si>
     <t xml:space="preserve">F23 ok. chan 1. </t>
   </si>
   <si>
-    <t xml:space="preserve">F23 ok. no chan. ( IF THE COMMAND WAS SENT WITHOUT AN ARGUMENT  )</t>
+    <t xml:space="preserve">F23 ok. no chan. (IF SENT WITHOUT AN ARGUMENT )</t>
   </si>
   <si>
     <t xml:space="preserve">F30</t>
@@ -388,7 +382,7 @@
     <t xml:space="preserve">Note:</t>
   </si>
   <si>
-    <t xml:space="preserve">Apparatus and protocol parameters </t>
+    <t xml:space="preserve">Protocol parameters </t>
   </si>
   <si>
     <t xml:space="preserve">Transmission Rate 115200 </t>
@@ -422,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,20 +441,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial Unicode MS"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -470,11 +460,11 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,40 +475,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -547,61 +509,57 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -795,577 +753,606 @@
   </sheetPr>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D66" activeCellId="0" sqref="D66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="57.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="54.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="156.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="I7" s="0" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="2" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="6" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="D31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="B32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="D32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="B33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="D33" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="B35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="B36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="D36" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="B37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="B38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="B39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="D39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="D40" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="B41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="D41" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="B42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="D42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="B43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="D43" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="2" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
         <v>120</v>
       </c>
     </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="13" t="s">
-        <v>121</v>
-      </c>
+      <c r="B55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="0" t="s">
-        <v>122</v>
-      </c>
+      <c r="B56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="0" t="s">
-        <v>123</v>
-      </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="0" t="s">
-        <v>124</v>
-      </c>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="0" t="s">
-        <v>125</v>
-      </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="0" t="s">
-        <v>126</v>
-      </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="0" t="s">
-        <v>128</v>
-      </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="0" t="s">
-        <v>129</v>
-      </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="0" t="s">
-        <v>130</v>
-      </c>
+      <c r="D64" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
